--- a/chipSolver/options.xlsx
+++ b/chipSolver/options.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s147057\Documents\GitHub\Chips\chipSolver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25D7062-3B67-46C0-A67E-F752D1BC5DB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E333F505-069A-4313-A839-654E608E0D56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -463,7 +470,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>0.96</v>
@@ -1289,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="K19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L19">
         <v>5</v>
@@ -1306,34 +1313,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M20">
         <v>0</v>
